--- a/cldr/main/script.xlsx
+++ b/cldr/main/script.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="489">
   <si>
     <t xml:space="preserve">видимая речь</t>
   </si>
@@ -79,14 +79,825 @@
     <t xml:space="preserve">шрифт Брайля</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">абраилиа а</t>
-    </r>
+    <t xml:space="preserve">абраилиа ашрифт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шумеро-аккадская клинопись</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ашумер-аккад асалҩыра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xsux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эмодзи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аемоӡи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zsye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эфиопская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аефиоп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">язык знаков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">адыргақәа рбызшәа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sgnw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">авестийская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">авести</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">азбука муна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">анбан муна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moon draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">алфавит Шоу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">арабица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">араб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">арамейская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">арамеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">армянская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ашәамахь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">афака</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afak draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">балийская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бамум</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абамум</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamu draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">басса (вах)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абасса (авах)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bass draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">батакская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абатак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бенгальская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абенгал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">блиссимволика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аблиссимволика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бопомофо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абопомофо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bopo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">брахми</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абрахми</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бугинизийская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абугиниз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бухид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абухид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вайская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аваи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaii draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">варанг-кшити</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аваранг-кшити</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wara draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">волеаи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аволеаи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wole draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">восточно-сирийская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мрагылара-шьамтәыла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">глаголица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аглаголица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">готская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">агот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">грантха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">агрантха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gran draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">греческая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">агрече</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">грузинская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ақырҭ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">грузинская хуцури</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ақырҭ ахуцур</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гуджарати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">агуџарати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gujr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гурмукхи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">агәырмукхи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гэльская латинская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">агел алаҭын</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">деванагари</t>
+  </si>
+  <si>
+    <t xml:space="preserve">адеванагар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дезерет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">адезерет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dsrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">джамо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аџамо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">древнеливийская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ажәытәливиа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tfng draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">древнепермская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ажәытәперм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perm draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дуплоянская скоропись</t>
+  </si>
+  <si>
+    <t xml:space="preserve">адуплоиан аццакҩыра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dupl draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">еврейская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауриа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">египетская демотическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мсыртәи адемот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">египетская иератическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мсыртәи аиерат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">египетская иероглифическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мсыртәи аиероглиф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">западносирийская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мраҭашәара-шьамтәыла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зоджи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">азоџ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qaag draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yiii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кайа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акаиа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кайтхи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акаитхи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">канадское слоговое письмо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">канадатәи ацыратә ҩыра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">каннада</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аканнада</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">карийская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акари</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">катакана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акатакана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">катакана и хирагана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акатаканеи ахираганеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hrkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кипрская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акипр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cprt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кириллица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акириллица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyrl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кирт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акирт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">китайская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акитаи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">коптская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акопт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">корейская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акореи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кпелле</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акпелле</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpel draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кхароштхи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акхароштхи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кхмерская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акхмер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khmr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кхудавади</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акхәыдавади</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sind draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ланна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аланна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лаосская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">алаос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">латиница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">алаҭын</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">латинская фрактура</t>
+  </si>
+  <si>
+    <t xml:space="preserve">алаҭынтәи афрактура</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лепха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">алепха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lepc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лидийская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">алиди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lydi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лимбу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">алимбу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">линейное письмо А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ацәаҳәатә ҩыра А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">линейное письмо Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ацәаҳәатә ҩыра Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лису</t>
+  </si>
+  <si>
+    <t xml:space="preserve">алису</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisu draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лициан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">алициан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">алома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loma draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">майя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амаиа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">малаялам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амалаиалам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mlym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мандейская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амандеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">манипури</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аманипур</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">манихейская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аманихеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mani draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">менде</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аменде</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mend draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мероитская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амероит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мероитская курсивная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амероиттәи ихьынаау</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merc draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">монгольская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амонгол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мро</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амро</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mroo draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мьянманская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амианман</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mymr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">набатейская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">анабатеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nbat draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">наси геба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">анаси геба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nkgb draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">насталик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">анасталик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aran draft=contributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">неизвестная письменность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">еилкаам аҩыра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zzzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет письменности</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -94,842 +905,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">шрифт</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Brai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">шумеро-аккадская клинопись</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ашумер-аккад асалҩыра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xsux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">эмодзи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аемоӡи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zsye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">эфиопская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аефиоп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">язык знаков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">адыргақәа рбызшәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sgnw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">авестийская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">авести</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">азбука муна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">анбан муна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moon draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алфавит Шоу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">арабица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">араб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">арамейская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">арамеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">армянская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ашәамахь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">афака</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afak draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">балийская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">абали</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бамум</t>
-  </si>
-  <si>
-    <t xml:space="preserve">абамум</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bamu draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">басса (вах)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">абасса (авах)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bass draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">батакская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">абатак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бенгальская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">абенгал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">блиссимволика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аблиссимволика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бопомофо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">абопомофо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bopo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">брахми</t>
-  </si>
-  <si>
-    <t xml:space="preserve">абрахми</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бугинизийская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">абугиниз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бухид</t>
-  </si>
-  <si>
-    <t xml:space="preserve">абухид</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вайская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аваи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaii draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">варанг-кшити</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аваранг-кшити</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wara draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">волеаи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аволеаи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wole draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">восточно-сирийская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мрагылара-шьамтәыла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syrn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">глаголица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аглаголица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">готская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">агот</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">грантха</t>
-  </si>
-  <si>
-    <t xml:space="preserve">агрантха</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gran draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">греческая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">агрече</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">грузинская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ақырҭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">грузинская хуцури</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ақырҭ ахуцур</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гуджарати</t>
-  </si>
-  <si>
-    <t xml:space="preserve">агуџарати</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gujr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гурмукхи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">агәырмукхи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гэльская латинская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">агел алаҭын</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">деванагари</t>
-  </si>
-  <si>
-    <t xml:space="preserve">адеванагар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дезерет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">адезерет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dsrt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">джамо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аџамо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">древнеливийская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ажәытәливиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tfng draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">древнепермская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ажәытәперм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perm draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дуплоянская скоропись</t>
-  </si>
-  <si>
-    <t xml:space="preserve">адуплоиан аццакҩыра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dupl draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">еврейская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауриа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hebr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">египетская демотическая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мсыртәи адемот</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">египетская иератическая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мсыртәи аиерат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">египетская иероглифическая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мсыртәи аиероглиф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">западносирийская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мраҭашәара-шьамтәыла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syrj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">зоджи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">азоџ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qaag draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">и</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yiii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кайа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акаиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кайтхи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акаитхи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">канадское слоговое письмо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">канадатәи ацыратә ҩыра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">каннада</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аканнада</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">карийская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акари</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">катакана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акатакана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">катакана и хирагана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акатаканеи ахираганеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hrkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кипрская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акипр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cprt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кириллица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акириллица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyrl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кирт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акирт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cirt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">китайская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акитаи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">коптская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акопт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">корейская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акореи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кпелле</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акпелле</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kpel draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кхароштхи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акхароштхи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кхмерская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акхмер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khmr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кхудавади</t>
-  </si>
-  <si>
-    <t xml:space="preserve">акхәыдавади</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sind draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ланна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аланна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лаосская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алаос</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">латиница</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алаҭын</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">латинская фрактура</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">алаҭынтәи а</t>
+      <t xml:space="preserve">амам </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">фрактура</t>
+      <t xml:space="preserve">аҩыра</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Latf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лепха</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алепха</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lepc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лидийская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алиди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lydi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лимбу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алимбу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">линейное письмо А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ацәаҳәатә ҩыра А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">линейное письмо Б</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ацәаҳәатә ҩыра Б</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лису</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алису</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisu draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лициан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алициан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loma draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">майя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амаиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">малаялам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амалаиалам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mlym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мандейская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амандеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">манипури</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аманипур</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">манихейская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аманихеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mani draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">менде</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аменде</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mend draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мероитская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амероит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мероитская курсивная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амероиттәи ихьынаау</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merc draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">монгольская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амонгол</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mroo draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мьянманская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амианман</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mymr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">набатейская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">анабатеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbat draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">наси геба</t>
-  </si>
-  <si>
-    <t xml:space="preserve">анаси геба</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nkgb draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">насталик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">анасталик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aran draft=contributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">неизвестная письменность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">еилкаам аҩыра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zzzz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нет письменности</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zxxx</t>
   </si>
   <si>
@@ -945,23 +933,7 @@
     <t xml:space="preserve">новый тайский ле</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">атаи ле </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ҿыц</t>
-    </r>
+    <t xml:space="preserve">атаи ле ҿыц</t>
   </si>
   <si>
     <t xml:space="preserve">Talu draft=contributed</t>
@@ -1168,23 +1140,7 @@
     <t xml:space="preserve">северноаравийское</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">аҩада</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">рави</t>
-    </r>
+    <t xml:space="preserve">аҩадарави</t>
   </si>
   <si>
     <t xml:space="preserve">Narb draft=contributed</t>
@@ -1229,23 +1185,7 @@
     <t xml:space="preserve">сирийская эстрангело</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">шьамтәылатәи ае</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">странгело</t>
-    </r>
+    <t xml:space="preserve">шьамтәылатәи аестрангело</t>
   </si>
   <si>
     <t xml:space="preserve">Syre</t>
@@ -1272,23 +1212,7 @@
     <t xml:space="preserve">староитальянская</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ажәытә</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">италиа</t>
-    </r>
+    <t xml:space="preserve">ажәытәиталиа</t>
   </si>
   <si>
     <t xml:space="preserve">Ital</t>
@@ -1306,23 +1230,7 @@
     <t xml:space="preserve">старославянская</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ажәытә</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">славиан</t>
-    </r>
+    <t xml:space="preserve">ажәытәславиан</t>
   </si>
   <si>
     <t xml:space="preserve">Cyrs</t>
@@ -1629,15 +1537,16 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1682,12 +1591,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1695,7 +1600,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1708,23 +1613,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1735,11 +1623,11 @@
   </sheetPr>
   <dimension ref="A1:C580"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.3"/>
@@ -2256,7 +2144,7 @@
       <c r="A47" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C47" s="0" t="s">
@@ -2267,7 +2155,7 @@
       <c r="A48" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -2366,7 +2254,7 @@
       <c r="A57" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -2817,7 +2705,7 @@
       <c r="A98" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>289</v>
       </c>
       <c r="C98" s="0" t="s">
@@ -2828,757 +2716,760 @@
       <c r="A99" s="0" t="s">
         <v>291</v>
       </c>
+      <c r="B99" s="0" t="s">
+        <v>292</v>
+      </c>
       <c r="C99" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="B124" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="B124" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="C124" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B363" s="2"/>
+      <c r="B363" s="1"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B364" s="2"/>
+      <c r="B364" s="1"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B480" s="3"/>
+      <c r="B480" s="2"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B483" s="3"/>
+      <c r="B483" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B547" s="2"/>
+      <c r="B547" s="1"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B548" s="2"/>
+      <c r="B548" s="1"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B549" s="2"/>
+      <c r="B549" s="1"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B552" s="2"/>
+      <c r="B552" s="1"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B553" s="2"/>
+      <c r="B553" s="1"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B578" s="3"/>
+      <c r="B578" s="2"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B580" s="2"/>
+      <c r="B580" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
